--- a/static/excel/Teachers.xlsx
+++ b/static/excel/Teachers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Staff_No</t>
   </si>
@@ -31,17 +31,35 @@
     <t>Dob</t>
   </si>
   <si>
-    <t>Qualifcation</t>
+    <t>Qualification</t>
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Shardha</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>shradhaefe@mail.com</t>
+  </si>
+  <si>
+    <t>MCa</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,6 +68,11 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -69,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -77,6 +100,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -337,6 +366,32 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.45125412E8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>37595.0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
